--- a/用例数据/深银行/普通交易/买入/测试结果.xlsx
+++ b/用例数据/深银行/普通交易/买入/测试结果.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="369">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1454,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI14"/>
+  <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3560,1677 +3560,6 @@
       </c>
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DK9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI9" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CJ10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DK10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI10" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DK11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI11" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DK12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI12" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BI13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CJ13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DK13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI13" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深银行/普通交易/买入/测试结果.xlsx
+++ b/用例数据/深银行/普通交易/买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="365">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -613,18 +613,6 @@
   </si>
   <si>
     <t>000007069968</t>
-  </si>
-  <si>
-    <t>30150342</t>
-  </si>
-  <si>
-    <t>005_006_005</t>
-  </si>
-  <si>
-    <t>银行间互联互通（通银行间方向）现券交易交收失败</t>
-  </si>
-  <si>
-    <t>000007069969</t>
   </si>
   <si>
     <t>1.0000000000</t>
@@ -1454,24 +1442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI7"/>
+  <dimension ref="A1:EI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1879,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2222,7 +2211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -2554,7 +2543,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>189</v>
       </c>
@@ -2886,12 +2875,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>142</v>
@@ -2945,22 +2934,22 @@
         <v>156</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>163</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>195</v>
@@ -2978,7 +2967,7 @@
         <v>163</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>163</v>
@@ -3050,7 +3039,7 @@
         <v>170</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>172</v>
@@ -3103,9 +3092,6 @@
       <c r="CB5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CC5" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="CD5" s="1" t="s">
         <v>163</v>
       </c>
@@ -3116,7 +3102,7 @@
         <v>170</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>171</v>
@@ -3155,7 +3141,7 @@
         <v>171</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>163</v>
@@ -3224,342 +3210,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EG6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3575,12 +3226,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3594,10 +3245,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -3606,43 +3257,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -3657,190 +3308,190 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
@@ -3872,10 +3523,10 @@
         <v>195</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>163</v>
@@ -3920,7 +3571,7 @@
         <v>168</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>170</v>
@@ -4040,16 +3691,16 @@
         <v>170</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>163</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>170</v>
@@ -4100,7 +3751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -4132,10 +3783,10 @@
         <v>157</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>163</v>
@@ -4180,7 +3831,7 @@
         <v>168</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>170</v>
@@ -4300,16 +3951,16 @@
         <v>170</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>163</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>170</v>
@@ -4360,9 +4011,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,18 +4028,18 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4397,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4406,7 +4057,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4430,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>21</v>
@@ -4457,7 +4108,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>37</v>
@@ -4496,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>47</v>
@@ -4511,7 +4162,7 @@
         <v>65</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>68</v>
@@ -4520,52 +4171,52 @@
         <v>77</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>94</v>
@@ -4625,10 +4276,10 @@
         <v>20</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -4669,10 +4320,10 @@
         <v>150</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>160</v>
@@ -4714,7 +4365,7 @@
         <v>161</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>163</v>
@@ -4741,7 +4392,7 @@
         <v>170</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>170</v>
@@ -4753,7 +4404,7 @@
         <v>174</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>176</v>
@@ -4777,7 +4428,7 @@
         <v>175</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>163</v>
@@ -4828,7 +4479,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -4869,10 +4520,10 @@
         <v>183</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>185</v>
@@ -4914,7 +4565,7 @@
         <v>186</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>163</v>
@@ -4941,7 +4592,7 @@
         <v>170</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>170</v>
@@ -4953,7 +4604,7 @@
         <v>174</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>176</v>
@@ -4977,7 +4628,7 @@
         <v>188</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>163</v>
@@ -5028,7 +4679,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -5069,10 +4720,10 @@
         <v>150</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>192</v>
@@ -5114,7 +4765,7 @@
         <v>193</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>163</v>
@@ -5141,7 +4792,7 @@
         <v>170</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>170</v>
@@ -5153,7 +4804,7 @@
         <v>174</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>176</v>
@@ -5177,7 +4828,7 @@
         <v>196</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>163</v>
@@ -5228,15 +4879,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>159</v>
@@ -5275,7 +4926,7 @@
         <v>168</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>163</v>
@@ -5314,7 +4965,7 @@
         <v>163</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>163</v>
@@ -5341,7 +4992,7 @@
         <v>170</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>170</v>
@@ -5353,7 +5004,7 @@
         <v>174</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>176</v>
@@ -5374,10 +5025,10 @@
         <v>159</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>163</v>
@@ -5428,8 +5079,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5444,17 +5095,17 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>132</v>
@@ -5472,28 +5123,28 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>25</v>
@@ -5517,25 +5168,25 @@
         <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>59</v>
@@ -5544,60 +5195,60 @@
         <v>1</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>173</v>
@@ -5615,7 +5266,7 @@
         <v>155</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>150</v>
@@ -5624,7 +5275,7 @@
         <v>176</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>176</v>
@@ -5642,7 +5293,7 @@
         <v>176</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>176</v>
@@ -5657,7 +5308,7 @@
         <v>176</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>176</v>
@@ -5669,7 +5320,7 @@
         <v>171</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>173</v>
@@ -5681,7 +5332,7 @@
         <v>171</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>176</v>
@@ -5693,7 +5344,7 @@
         <v>176</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>159</v>
@@ -5705,15 +5356,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>173</v>
@@ -5731,7 +5382,7 @@
         <v>155</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>183</v>
@@ -5740,7 +5391,7 @@
         <v>176</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>176</v>
@@ -5758,7 +5409,7 @@
         <v>176</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>176</v>
@@ -5773,7 +5424,7 @@
         <v>176</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>176</v>
@@ -5785,7 +5436,7 @@
         <v>171</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>173</v>
@@ -5797,7 +5448,7 @@
         <v>171</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>176</v>
@@ -5809,7 +5460,7 @@
         <v>176</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>159</v>
@@ -5821,15 +5472,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>173</v>
@@ -5847,7 +5498,7 @@
         <v>155</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>150</v>
@@ -5856,7 +5507,7 @@
         <v>176</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>176</v>
@@ -5874,7 +5525,7 @@
         <v>176</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>176</v>
@@ -5889,7 +5540,7 @@
         <v>176</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>176</v>
@@ -5901,7 +5552,7 @@
         <v>171</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>173</v>
@@ -5913,7 +5564,7 @@
         <v>171</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>176</v>
@@ -5925,7 +5576,7 @@
         <v>176</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>159</v>
@@ -5937,15 +5588,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>173</v>
@@ -5963,7 +5614,7 @@
         <v>155</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>150</v>
@@ -5990,7 +5641,7 @@
         <v>176</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>176</v>
@@ -6005,7 +5656,7 @@
         <v>176</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>176</v>
@@ -6017,7 +5668,7 @@
         <v>171</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>173</v>
@@ -6029,7 +5680,7 @@
         <v>171</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>176</v>
@@ -6041,7 +5692,7 @@
         <v>176</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>159</v>
@@ -6053,12 +5704,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>159</v>
@@ -6073,10 +5724,10 @@
         <v>155</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>183</v>
@@ -6118,7 +5769,7 @@
         <v>176</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>176</v>
@@ -6130,7 +5781,7 @@
         <v>171</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>173</v>
@@ -6145,7 +5796,7 @@
         <v>171</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>176</v>
@@ -6157,7 +5808,7 @@
         <v>176</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>159</v>
@@ -6169,12 +5820,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>159</v>
@@ -6189,10 +5840,10 @@
         <v>155</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>183</v>
@@ -6234,7 +5885,7 @@
         <v>176</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>176</v>
@@ -6246,7 +5897,7 @@
         <v>171</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>173</v>
@@ -6261,7 +5912,7 @@
         <v>171</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>176</v>
@@ -6273,7 +5924,7 @@
         <v>176</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>159</v>
@@ -6285,12 +5936,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>159</v>
@@ -6305,10 +5956,10 @@
         <v>155</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>183</v>
@@ -6350,7 +6001,7 @@
         <v>176</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>176</v>
@@ -6362,7 +6013,7 @@
         <v>171</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>173</v>
@@ -6377,7 +6028,7 @@
         <v>171</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>176</v>
@@ -6389,7 +6040,7 @@
         <v>176</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>159</v>
@@ -6401,12 +6052,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>159</v>
@@ -6421,10 +6072,10 @@
         <v>155</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>183</v>
@@ -6466,7 +6117,7 @@
         <v>176</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>176</v>
@@ -6478,7 +6129,7 @@
         <v>171</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>173</v>
@@ -6493,7 +6144,7 @@
         <v>171</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>176</v>
@@ -6505,7 +6156,7 @@
         <v>176</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>159</v>
@@ -6517,9 +6168,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
